--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991202.2029879988</v>
+        <v>1033077.2570307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365225</v>
+        <v>606553.2040797174</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6665327.86642237</v>
+        <v>7193213.809103667</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>281.6508825495251</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -671,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730203</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,10 +873,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>21.64009468018544</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225787</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1409105078473</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1142,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.5330916122961</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022503</v>
       </c>
       <c r="H10" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>329.6319893495199</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.0599116349196</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>139.1368521158684</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494705</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2484,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>141.0670894717352</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.292363805516904</v>
+        <v>176.9696690484016</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>86.27769679771725</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3275,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>7.26460296736313</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>209.9324537163696</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.43755362246745</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>62.61079093391547</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>127.68741616933</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>231.3643080165135</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3986,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695424</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>110.675146499381</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>157.8824880649892</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1524.114932457322</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.012863681149</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.517022722033</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>771.7422778803279</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>343.8748482895357</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2374.617736571424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2373.802686022862</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.660222602172</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.374098901826</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1398.553250125001</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1398.553250125001</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1401.857384968378</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>1401.857384968378</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>1401.857384968378</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>1401.857384968378</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2577.993317935594</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2332.11387151405</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2332.11387151405</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2136.289685831855</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1864.263281418146</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.398721766977</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.296652990805</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>2737.234686637598</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2737.234686637598</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.945156827654</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>2236.086475332517</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.944011911828</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.657888211481</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.4798998523679</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>750.9181883355928</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>585.0401955371156</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>415.2821917878528</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>238.575137749609</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>72.98386277543668</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2425.524857214007</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U7" t="n">
-        <v>2147.091856467112</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V7" t="n">
-        <v>1860.136348337543</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W7" t="n">
-        <v>1588.109943923834</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X7" t="n">
-        <v>1342.718189257247</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y7" t="n">
-        <v>1115.298518571355</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.398721766977</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>948.2562489504005</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>512.3464641248449</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>78.57171928314017</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>732.2102786755574</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.675863618363</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>2087.141448561168</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1812.698292251885</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L9" t="n">
-        <v>732.2102786755574</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M9" t="n">
-        <v>1409.675863618363</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.4798998523679</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>750.9181883355928</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>585.0401955371156</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E10" t="n">
-        <v>415.2821917878528</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F10" t="n">
-        <v>238.575137749609</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G10" t="n">
-        <v>72.98386277543668</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.524857214007</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2147.091856467112</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1860.136348337543</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
-        <v>1588.109943923834</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.718189257247</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>1115.298518571355</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.651074442687</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1078.651074442687</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1078.651074442687</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1078.651074442687</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>745.6894690391318</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>158.3391458505872</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>158.3391458505872</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>835.8047307933927</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>1513.270315736198</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N11" t="n">
-        <v>2190.735900679003</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O11" t="n">
-        <v>2190.735900679003</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2332.379232048631</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1913.236768627942</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1504.950644927595</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>80.80836689320955</v>
+        <v>626.035472885021</v>
       </c>
       <c r="M12" t="n">
-        <v>382.60715354234</v>
+        <v>626.035472885021</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.072738485145</v>
+        <v>626.035472885021</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>863.9972407989397</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>691.4355292821647</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>691.4355292821647</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>691.4355292821647</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>514.7284752439209</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>349.1372002697486</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>209.2350259601232</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2611.921644582123</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2366.042198160579</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2087.609197413684</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1800.653689284115</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1528.627284870406</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1283.235530203819</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.815859517927</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2332.379232048631</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1894.236759232054</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.326974406499</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1024.552229564794</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>596.6847999740016</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>195.2869685972655</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N14" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>2332.379232048631</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>2332.379232048631</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>379.3030186989643</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>1056.76860364177</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>1056.76860364177</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>1056.76860364177</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N15" t="n">
-        <v>1056.76860364177</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>2922.341393116814</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>2749.779681600039</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>2583.901688801562</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>2414.143685052299</v>
       </c>
       <c r="F16" t="n">
-        <v>57.91594775297747</v>
+        <v>2237.436631014055</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.425041204573</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.183495775709</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.393377543669</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.877244724582</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882227</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.805297108008</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.31219107835</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>4670.265796899997</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>4424.386350478453</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>4145.953349731559</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>3858.997841601989</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>3586.971437188281</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>3341.579682521693</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>3114.160011835801</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5518,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5543,16 +5545,16 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5601,16 +5603,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5750,49 +5752,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176682</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.233352746989</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580385</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>3800.424250186843</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N21" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.441008084184</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
         <v>673.1212928181459</v>
@@ -6427,7 +6429,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.259626803171</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1948.217445618573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>3449.802252060173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>3449.802252060173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>3879.214741978675</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
         <v>5113.042013538981</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6938,49 +6940,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242392</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>2846.018715443915</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>982.1554751127505</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>982.1554751127505</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>816.2774823142732</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>646.5194785650106</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>469.8124245267668</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
-        <v>304.2211495525945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>164.318975242969</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1354.529340981826</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>916.3868681652491</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>928.1203912770316</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.464966128475</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N41" t="n">
-        <v>1167.464966128475</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="O41" t="n">
-        <v>1344.116250983141</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>3988.538067573837</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>4535.036853532432</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>2608.25749858777</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>2189.11503516708</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1780.828911466734</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455164</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.980488291807</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.89019943836</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765313</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381475</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647659</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463872</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624329</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590542</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216265</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.33218784834</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391063</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721665</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721633</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783632</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.094065516827</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.226629755707</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534928</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>968.2115793704611</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C43" t="n">
-        <v>795.649867853686</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D43" t="n">
-        <v>629.7718750552087</v>
+        <v>443.406411126585</v>
       </c>
       <c r="E43" t="n">
-        <v>460.0138713059459</v>
+        <v>273.6484073773223</v>
       </c>
       <c r="F43" t="n">
-        <v>283.3068172677021</v>
+        <v>96.94135333907846</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.524857214007</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.823535985206</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1904.868027855636</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W43" t="n">
-        <v>1632.841623441928</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1387.44986877534</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.030198089448</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1790.855915180241</v>
+        <v>2104.363000055489</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.713442363665</v>
+        <v>1666.220527238912</v>
       </c>
       <c r="D44" t="n">
-        <v>916.8036575381091</v>
+        <v>1230.310742413357</v>
       </c>
       <c r="E44" t="n">
-        <v>483.0289126964042</v>
+        <v>796.5359975716519</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>424.106380369346</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>1258.456672327524</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3313.69630515069</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4142.006179984086</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999556</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316573</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250399</v>
       </c>
       <c r="W44" t="n">
-        <v>2625.441609365496</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X44" t="n">
-        <v>2625.441609365496</v>
+        <v>2938.948694240743</v>
       </c>
       <c r="Y44" t="n">
-        <v>2217.155485665149</v>
+        <v>2530.662570540397</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C46" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>443.406411126585</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773223</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2244.865667217376</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1957.910159087806</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W46" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y46" t="n">
-        <v>1325.62147306362</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942804218</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>656.6598364408383</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>311.4228197911089</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>697.3710058236124</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8772,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M12" t="n">
-        <v>304.8472592415459</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>618.0868407147311</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,31 +9005,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O15" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,16 +9178,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>655.9980117748592</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.8392149967</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>753.9218057523894</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>155.0182953638869</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621135</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>93.9567659453644</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>33.58904338006366</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>147.1020008953475</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>144.1344859240858</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>22.86827275269542</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.8531101735159</v>
+        <v>48.17580493063116</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>197.8082562505566</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>160.795820744407</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>15.21302026266324</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>26.33579611060396</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>194.0192887222378</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>273.119483873747</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.28436272291216</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>411.8858435779301</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>290.131753543696</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>629442.0530554669</v>
+        <v>629045.0758973636</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>629442.0530554669</v>
+        <v>629045.0758973636</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>629442.0530554669</v>
+        <v>629045.0758973636</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412577.6098837554</v>
+        <v>593638.139097544</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412577.6098837554</v>
+        <v>593638.139097544</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633031.4016936513</v>
+        <v>633031.4016936516</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633031.4016936515</v>
+        <v>633031.4016936516</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633031.4016936513</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412577.6098837554</v>
+        <v>593638.1390975439</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>412577.6098837553</v>
+        <v>593638.1390975439</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>335092.0749315053</v>
+      </c>
+      <c r="C2" t="n">
         <v>335092.0749315052</v>
       </c>
-      <c r="C2" t="n">
-        <v>335092.0749315051</v>
-      </c>
       <c r="D2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.828724999</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
         <v>329285.9900858451</v>
@@ -26335,25 +26337,25 @@
         <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
         <v>329285.990085845</v>
       </c>
       <c r="L2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="M2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.828724999</v>
+        <v>308794.6693678431</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260794</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389046</v>
       </c>
       <c r="D4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
@@ -26442,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.84454233229</v>
+        <v>38563.88892013468</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.88892013469</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232874</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106296.7642858669</v>
+        <v>-102203.8954532018</v>
       </c>
       <c r="C6" t="n">
-        <v>123030.810686646</v>
+        <v>121495.8031308429</v>
       </c>
       <c r="D6" t="n">
-        <v>123030.810686646</v>
+        <v>121495.8031308431</v>
       </c>
       <c r="E6" t="n">
-        <v>146204.0169457753</v>
+        <v>48299.75139363186</v>
       </c>
       <c r="F6" t="n">
-        <v>146204.0169457752</v>
+        <v>198965.5049653796</v>
       </c>
       <c r="G6" t="n">
-        <v>47651.51175169853</v>
+        <v>181354.9903775319</v>
       </c>
       <c r="H6" t="n">
-        <v>210444.7995501398</v>
+        <v>210444.7995501399</v>
       </c>
       <c r="I6" t="n">
-        <v>210444.7995501398</v>
+        <v>210444.7995501399</v>
       </c>
       <c r="J6" t="n">
-        <v>31399.54146248785</v>
+        <v>35793.45083243371</v>
       </c>
       <c r="K6" t="n">
         <v>210444.7995501398</v>
@@ -26552,16 +26554,16 @@
         <v>210444.7995501398</v>
       </c>
       <c r="M6" t="n">
-        <v>210444.7995501399</v>
+        <v>84693.71121444934</v>
       </c>
       <c r="N6" t="n">
-        <v>210444.7995501399</v>
+        <v>210444.7995501398</v>
       </c>
       <c r="O6" t="n">
-        <v>146204.0169457753</v>
+        <v>198965.5049653797</v>
       </c>
       <c r="P6" t="n">
-        <v>146204.0169457753</v>
+        <v>198965.5049653797</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990749</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990749</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>149.8998044277748</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27436,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>367.2261030860411</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>185.4631102447384</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.1668053628916</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>33.279741449482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.670170851047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H10" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942804218</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>656.6598364408383</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>311.4228197911089</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>697.3710058236124</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M12" t="n">
-        <v>304.8472592415459</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O14" t="n">
-        <v>618.0868407147311</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O15" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,19 +35895,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>655.9980117748592</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.8392149967</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>753.9218057523894</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>155.0182953638869</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37941,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621135</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1033077.2570307</v>
+        <v>1032471.169401803</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797174</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>215.3437897983385</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.97715937730203</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598887</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>152.5168019860614</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>248.2979378436725</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>389.4153279002815</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>134.7806822622883</v>
       </c>
       <c r="T7" t="n">
-        <v>210.1409105078473</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340973</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022503</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.1507312021306</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361673</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.1507312021306</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742595</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.01098805494705</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>141.0670894717352</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2715,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.9696690484016</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.9324537163696</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>62.61079093391547</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022602</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3985,10 +3985,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>376.5419343808732</v>
       </c>
       <c r="F44" t="n">
-        <v>11.70291171695424</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.493479979994</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.351007163417</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4342,13 +4342,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X2" t="n">
-        <v>2654.14371650258</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y2" t="n">
-        <v>2616.793050464902</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705998</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705998</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2516.003450687931</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2270.124004266387</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1991.691003519492</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1704.735495389923</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1432.709090976214</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1187.317336309627</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>793.6783655277644</v>
+        <v>1744.308896547785</v>
       </c>
       <c r="C5" t="n">
-        <v>542.872367705873</v>
+        <v>1710.206827771612</v>
       </c>
       <c r="D5" t="n">
-        <v>511.0029869207216</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>801.8819313892766</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
         <v>801.8819313892766</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093304</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1628.264059713019</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1219.977936012672</v>
+        <v>1766.568062992289</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
         <v>447.554615037751</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2533.918723136188</v>
       </c>
       <c r="T7" t="n">
-        <v>2457.797280463905</v>
+        <v>2288.039276714643</v>
       </c>
       <c r="U7" t="n">
-        <v>2179.364279717011</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V7" t="n">
-        <v>1892.408771587441</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.382367173733</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X7" t="n">
-        <v>1374.990612507145</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.570941821253</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="8">
@@ -4789,43 +4789,43 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870971</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885332</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
         <v>2082.266833883286</v>
@@ -5035,58 +5035,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2325.877900782264</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>3451.608884218711</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3451.608884218711</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>626.035472885021</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>626.035472885021</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>626.035472885021</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.2661363957848</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790097</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805324</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312697</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>880.1878713878186</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>452.3204417970264</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.175078389668</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2922.341393116814</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>2749.779681600039</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>2583.901688801562</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>2414.143685052299</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>2237.436631014055</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>2158.425041204573</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>2433.183495775709</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>2851.393377543669</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>3310.877244724582</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>3753.136047882227</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>4172.805297108008</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>4520.31219107835</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>4688.504965942682</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>4688.504965942682</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>4670.265796899997</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>4424.386350478453</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>4145.953349731559</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>3858.997841601989</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>3586.971437188281</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>3341.579682521693</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>3114.160011835801</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5515,34 +5515,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5752,49 +5752,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176682</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.233352746989</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580385</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3575.440564248063</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>3402.878852731288</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>3237.000859932811</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.242856183548</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.535802145304</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>3849.088463830633</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>3767.25918296705</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731391</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>473.3149733731391</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>838.9992856166232</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1030.81790433561</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6469,10 +6469,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6882,7 +6882,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,37 +7186,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484973</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885361</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770316</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>3160.228192740442</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N41" t="n">
-        <v>3160.228192740442</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3160.228192740442</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3988.538067573837</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4535.036853532432</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126517</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4604.853092126517</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.609868960946</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.992918894773</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3774.137464305806</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.995000885117</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455164</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291807</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.89019943836</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765313</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381475</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647659</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463872</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624329</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590542</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216265</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.33218784834</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.50496594268</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391063</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721665</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721633</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783632</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516827</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755707</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534928</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418374</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250623</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>443.406411126585</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773223</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907846</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885361</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
         <v>1332.801988003553</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225021</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927012</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846716</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.6647341608245</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055489</v>
+        <v>2466.979950121666</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238912</v>
+        <v>2028.83747730509</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413357</v>
+        <v>1592.927692479534</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716519</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
         <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484973</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171361</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>424.106380369346</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1258.456672327524</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2333.516638580383</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2333.516638580383</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580383</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.69630515069</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984086</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126517</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999556</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316573</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250399</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661433</v>
+        <v>3720.70810772761</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240743</v>
+        <v>3301.565644306921</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540397</v>
+        <v>2893.279520606574</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7718,19 +7718,19 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885361</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418374</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>609.2844039250623</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>443.406411126585</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>273.6484073773223</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
         <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
         <v>1332.801988003553</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225021</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927012</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846716</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.6647341608245</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
-        <v>697.3710058236124</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9175,19 +9175,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>155.0182953638869</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621135</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>69.71657238081387</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.8316354887092</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.1344859240858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22.86827275269542</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.17580493063116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.21302026266324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>194.0192887222378</v>
+        <v>193.6066672431028</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>52.89506301241454</v>
       </c>
       <c r="F44" t="n">
-        <v>411.8858435779301</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593638.139097544</v>
+        <v>593638.1390975441</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593638.139097544</v>
+        <v>593638.1390975441</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593638.1390975439</v>
+        <v>593638.1390975441</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593638.1390975439</v>
+        <v>593638.1390975442</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="G2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="I2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858451</v>
@@ -26352,10 +26352,10 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260794</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389046</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>38563.88892013469</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
         <v>38563.8889201347</v>
@@ -26435,7 +26435,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26444,7 +26444,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26453,13 +26453,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>38563.88892013468</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>38563.88892013469</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102203.8954532018</v>
+        <v>-102203.8954532019</v>
       </c>
       <c r="C6" t="n">
         <v>121495.8031308429</v>
@@ -26530,40 +26530,40 @@
         <v>121495.8031308431</v>
       </c>
       <c r="E6" t="n">
-        <v>48299.75139363186</v>
+        <v>48194.56177137712</v>
       </c>
       <c r="F6" t="n">
-        <v>198965.5049653796</v>
+        <v>198860.3153431252</v>
       </c>
       <c r="G6" t="n">
-        <v>181354.9903775319</v>
+        <v>181331.7660381494</v>
       </c>
       <c r="H6" t="n">
-        <v>210444.7995501399</v>
+        <v>210421.5752107573</v>
       </c>
       <c r="I6" t="n">
-        <v>210444.7995501399</v>
+        <v>210421.5752107571</v>
       </c>
       <c r="J6" t="n">
-        <v>35793.45083243371</v>
+        <v>35770.22649305111</v>
       </c>
       <c r="K6" t="n">
-        <v>210444.7995501398</v>
+        <v>210421.5752107572</v>
       </c>
       <c r="L6" t="n">
-        <v>210444.7995501398</v>
+        <v>210421.5752107572</v>
       </c>
       <c r="M6" t="n">
-        <v>84693.71121444934</v>
+        <v>84670.48687506639</v>
       </c>
       <c r="N6" t="n">
-        <v>210444.7995501398</v>
+        <v>210421.5752107572</v>
       </c>
       <c r="O6" t="n">
-        <v>198965.5049653797</v>
+        <v>198860.3153431252</v>
       </c>
       <c r="P6" t="n">
-        <v>198965.5049653797</v>
+        <v>198860.3153431252</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990749</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778132</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990749</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>185.4631102447385</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.2261030860411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060378</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.132153028921948</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>185.4631102447384</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>42.13535907701845</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27824,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>22.86827275269496</v>
       </c>
       <c r="T7" t="n">
-        <v>33.279741449482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230727</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
-        <v>697.3710058236124</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35895,19 +35895,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>155.0182953638869</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621135</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
